--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizator\Desktop\anul3\Sem2\VVSS\Pic-Pac-Poc\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BAAF71-EA04-4E05-B1A9-118531D4D97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +18,24 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -103,9 +121,6 @@
     <t>Tool-based Code Analysis</t>
   </si>
   <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
-  </si>
-  <si>
     <t>Crudu Malina</t>
   </si>
   <si>
@@ -284,12 +299,115 @@
   </si>
   <si>
     <t>Diagrama este aglomerata inutil punandu-se doua randuri de sageti desi e clar ca agregarea inseamna si dependenta</t>
+  </si>
+  <si>
+    <t>Task,84</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> return interval &gt; 0 ? interval : 0;</t>
+  </si>
+  <si>
+    <t>return Math.max(interval, 0);</t>
+  </si>
+  <si>
+    <t>interval*1000</t>
+  </si>
+  <si>
+    <t>interval*o_mie</t>
+  </si>
+  <si>
+    <t>Task,111</t>
+  </si>
+  <si>
+    <t>Task,110</t>
+  </si>
+  <si>
+    <t>inainte erau 3 if-uri</t>
+  </si>
+  <si>
+    <t>refactor =&gt;extract new method</t>
+  </si>
+  <si>
+    <t>Task,182</t>
+  </si>
+  <si>
+    <t>result = 31 * result + (active ? 1 : 0);</t>
+  </si>
+  <si>
+    <t>Task,10</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>excuse me but what</t>
+  </si>
+  <si>
+    <t>Task, peste tot</t>
+  </si>
+  <si>
+    <t>lipseau</t>
+  </si>
+  <si>
+    <t>le-am pus</t>
+  </si>
+  <si>
+    <t>ArrayTaskList,56</t>
+  </si>
+  <si>
+    <t>if (task==null) throw new NullPointerException("Task shouldn't be null")</t>
+  </si>
+  <si>
+    <t>if (task==null) {
+            throw new IllegalArgumentException("Task shouldn't be null");
+        }</t>
+  </si>
+  <si>
+    <t>currentCapacity = currentCapacity * doi;</t>
+  </si>
+  <si>
+    <t>currentCapacity = currentCapacity * 2;</t>
+  </si>
+  <si>
+    <t>ArrayTaskList,62</t>
+  </si>
+  <si>
+    <t>return getTask(cursor++);</t>
+  </si>
+  <si>
+    <t>ArrayTaskList,31</t>
+  </si>
+  <si>
+    <t>Task t = getTask(cursor);
+cursor++;
+return t;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ArrayTaskList tasks = new ArrayTaskList();</t>
+  </si>
+  <si>
+    <t>ArrayTaskList,148</t>
+  </si>
+  <si>
+    <t>ArrayTaskList tasksClone = new ArrayTaskList();</t>
+  </si>
+  <si>
+    <t>ArrayTaskList,13</t>
+  </si>
+  <si>
+    <t>Provide default values:              private int cursor=0;</t>
+  </si>
+  <si>
+    <t>Nu aveam constructor sau initializarea tuturor membrilor clasei.</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours):1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,12 +665,504 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6283559</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>274319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagine 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3934AC31-6A68-47E4-AC81-0CE5FDC85CE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="1668780"/>
+          <a:ext cx="6230219" cy="266699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6355080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>266737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagine 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2574DF-DC53-405A-BFFB-0287E7E07CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575560" y="2209800"/>
+          <a:ext cx="6355080" cy="266737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>186885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagine 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636E93ED-E986-454D-A200-6E82558D73FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575561" y="2750820"/>
+          <a:ext cx="6400800" cy="186885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5363323</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagine 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2DBD11C-905D-4D90-9AC5-0036439C629E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575560" y="3032760"/>
+          <a:ext cx="5363323" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4848902</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>314369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagine 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1D34F8-D40F-4384-BE0B-F75CD6D40B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575560" y="3368040"/>
+          <a:ext cx="4848902" cy="314369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3258005</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>323895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagine 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05F41E4-B957-4CA4-9A73-6E80E8CEAA91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575560" y="3733800"/>
+          <a:ext cx="3258005" cy="323895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5372850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>247685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagine 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D79330-7F8F-4E81-95CA-761568B58FD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575560" y="4198620"/>
+          <a:ext cx="5372850" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>893</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>247685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagine 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB34AFC-752D-4751-9912-9691F4A04973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575560" y="4960620"/>
+          <a:ext cx="6401693" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5887272</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>266737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagine 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E104B2A4-CCEB-4A60-9BA4-DA300541DC52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575560" y="5326380"/>
+          <a:ext cx="5887272" cy="266737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4706007</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>285790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagine 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C80DE1C-E7C2-40D5-8526-502127F14909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575560" y="5981700"/>
+          <a:ext cx="4706007" cy="285790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4429743</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>247685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagine 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B4A5BC-DC1E-466B-B4CD-08D724B53AE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575560" y="6324600"/>
+          <a:ext cx="4429743" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -594,7 +1204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,9 +1237,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -662,6 +1289,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -837,7 +1481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -891,7 +1535,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="18">
         <v>232</v>
@@ -909,7 +1553,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3">
         <v>232</v>
@@ -920,14 +1564,14 @@
         <v>9</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>232</v>
@@ -939,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -948,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="23"/>
     </row>
@@ -971,13 +1615,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -986,13 +1630,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1001,13 +1645,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1016,13 +1660,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1031,13 +1675,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1046,13 +1690,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1061,13 +1705,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1178,13 +1822,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1231,7 +1875,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="18">
         <v>232</v>
@@ -1249,7 +1893,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3">
         <v>232</v>
@@ -1260,14 +1904,14 @@
         <v>9</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>232</v>
@@ -1279,7 +1923,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -1288,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="23"/>
     </row>
@@ -1311,13 +1955,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1326,13 +1970,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1341,13 +1985,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1356,13 +2000,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1371,13 +2015,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1386,13 +2030,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1401,13 +2045,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1416,13 +2060,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -1533,14 +2177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,7 +2230,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="18">
         <v>232</v>
@@ -1604,7 +2248,7 @@
         <v>17</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3">
         <v>232</v>
@@ -1615,14 +2259,14 @@
         <v>9</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="3">
         <v>232</v>
@@ -1634,7 +2278,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -1643,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="23"/>
     </row>
@@ -1666,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1681,13 +2325,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1696,13 +2340,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1711,13 +2355,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1726,13 +2370,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1741,13 +2385,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1756,13 +2400,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1918,14 +2562,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,9 +2577,9 @@
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="93.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="6"/>
@@ -1971,8 +2615,12 @@
       <c r="H3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="18">
+        <v>232</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="17" t="s">
@@ -1983,27 +2631,39 @@
       <c r="H4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="3">
+        <v>232</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="21"/>
     </row>
@@ -2024,114 +2684,178 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
@@ -2238,7 +2962,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="31" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
@@ -2255,5 +2979,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>